--- a/grouped_stats.xlsx
+++ b/grouped_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>counts</t>
+          <t>counts_accuracy</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -472,6 +472,31 @@
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>median_accuracy</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>counts_recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>avg_recall</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>min_recall</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>max_recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>median_recall</t>
         </is>
       </c>
     </row>
@@ -492,19 +517,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>58.77207977207977</v>
+        <v>54.77197802197803</v>
       </c>
       <c r="F2" t="n">
-        <v>55.12820512820513</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="G2" t="n">
         <v>66.66666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>56.87179487179488</v>
+        <v>53.75</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5350370073276477</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.4926108374384236</v>
       </c>
     </row>
     <row r="3">
@@ -538,6 +578,21 @@
       <c r="H3" t="n">
         <v>56.94444444444445</v>
       </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -552,23 +607,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Resampled Images(Masked PET)</t>
+          <t>Resampled Images(Co-registered PET)</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>55.41666666666666</v>
+        <v>52.12121212121212</v>
       </c>
       <c r="F4" t="n">
-        <v>55.41666666666666</v>
+        <v>52.12121212121212</v>
       </c>
       <c r="G4" t="n">
-        <v>55.41666666666666</v>
+        <v>52.12121212121212</v>
       </c>
       <c r="H4" t="n">
-        <v>55.41666666666666</v>
+        <v>52.12121212121212</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9555555555555556</v>
       </c>
     </row>
     <row r="5">
@@ -584,23 +654,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Resampled Images(Spatial Normalization)</t>
+          <t>Resampled Images(Masked PET)</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>56.875</v>
+        <v>52.43560606060606</v>
       </c>
       <c r="F5" t="n">
-        <v>56.45833333333334</v>
+        <v>50.75757575757575</v>
       </c>
       <c r="G5" t="n">
-        <v>57.29166666666666</v>
+        <v>55.41666666666666</v>
       </c>
       <c r="H5" t="n">
-        <v>56.875</v>
+        <v>51.96969696969697</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.3838888888888889</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="6">
@@ -616,23 +701,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Resampled Images_fused</t>
+          <t>Resampled Images(Spatial Normalization)</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>57.87878787878788</v>
+        <v>53.86153198653199</v>
       </c>
       <c r="F6" t="n">
-        <v>55.45454545454546</v>
+        <v>51.875</v>
       </c>
       <c r="G6" t="n">
-        <v>60.3030303030303</v>
+        <v>57.29166666666666</v>
       </c>
       <c r="H6" t="n">
-        <v>57.87878787878788</v>
+        <v>53.125</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.4496913580246914</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.375</v>
       </c>
     </row>
     <row r="7">
@@ -643,28 +743,43 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160x160x96</t>
+          <t>110x110x110</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fused Images (RESAMPLED TO PET)</t>
+          <t>Resampled Images_fused</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>59.5899470899471</v>
+        <v>54.22979797979798</v>
       </c>
       <c r="F7" t="n">
-        <v>55.55555555555556</v>
+        <v>50.90909090909091</v>
       </c>
       <c r="G7" t="n">
-        <v>74.44444444444444</v>
+        <v>60.3030303030303</v>
       </c>
       <c r="H7" t="n">
-        <v>58.33333333333334</v>
+        <v>53.33333333333333</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5962962962962962</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -680,23 +795,273 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Fused Images (RESAMPLED TO PET)</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E8" t="n">
+        <v>57.04081632653061</v>
+      </c>
+      <c r="F8" t="n">
+        <v>50.5952380952381</v>
+      </c>
+      <c r="G8" t="n">
+        <v>74.44444444444444</v>
+      </c>
+      <c r="H8" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.7414148351648351</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>VGG3D</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160x160x96</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Original PET (OLD)</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>59.02777777777778</v>
-      </c>
-      <c r="F8" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="D9" t="n">
+        <v>16</v>
+      </c>
+      <c r="E9" t="n">
+        <v>54.74950396825397</v>
+      </c>
+      <c r="F9" t="n">
+        <v>50.5952380952381</v>
+      </c>
+      <c r="G9" t="n">
         <v>65.47619047619048</v>
       </c>
-      <c r="H8" t="n">
-        <v>57.73809523809524</v>
+      <c r="H9" t="n">
+        <v>52.77777777777777</v>
+      </c>
+      <c r="I9" t="n">
+        <v>16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.8756009615384616</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.9302884615384616</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>VGG3D</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>193x229x193</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Co-registered PET</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50.83333333333334</v>
+      </c>
+      <c r="F10" t="n">
+        <v>50.75757575757576</v>
+      </c>
+      <c r="G10" t="n">
+        <v>50.90909090909091</v>
+      </c>
+      <c r="H10" t="n">
+        <v>50.83333333333334</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VGG3D</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>193x229x193</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fused Images</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>52.12121212121212</v>
+      </c>
+      <c r="F11" t="n">
+        <v>50.75757575757576</v>
+      </c>
+      <c r="G11" t="n">
+        <v>54.6969696969697</v>
+      </c>
+      <c r="H11" t="n">
+        <v>50.90909090909091</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>VGG3D</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>193x229x193</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Masked PET</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>50.83333333333334</v>
+      </c>
+      <c r="F12" t="n">
+        <v>50.75757575757576</v>
+      </c>
+      <c r="G12" t="n">
+        <v>50.90909090909091</v>
+      </c>
+      <c r="H12" t="n">
+        <v>50.83333333333334</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>VGG3D</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>193x229x193</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Spatial Normalization</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>50.90909090909091</v>
+      </c>
+      <c r="F13" t="n">
+        <v>50.90909090909091</v>
+      </c>
+      <c r="G13" t="n">
+        <v>50.90909090909091</v>
+      </c>
+      <c r="H13" t="n">
+        <v>50.90909090909091</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/grouped_stats.xlsx
+++ b/grouped_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,27 +476,12 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>counts_recall</t>
+          <t>max_accuracy_DATETIME</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>avg_recall</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>min_recall</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>max_recall</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>median_recall</t>
+          <t>best_recall</t>
         </is>
       </c>
     </row>
@@ -531,20 +516,13 @@
       <c r="H2" t="n">
         <v>53.75</v>
       </c>
-      <c r="I2" t="n">
-        <v>14</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2024-05-07_18-35-41</t>
+        </is>
       </c>
       <c r="J2" t="n">
-        <v>0.5350370073276477</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.4926108374384236</v>
+        <v>0.5763546798029556</v>
       </c>
     </row>
     <row r="3">
@@ -578,21 +556,14 @@
       <c r="H3" t="n">
         <v>56.94444444444445</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2024-05-10_09-42-58</t>
+        </is>
       </c>
       <c r="J3" t="n">
         <v>0.75</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.75</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -625,21 +596,14 @@
       <c r="H4" t="n">
         <v>52.12121212121212</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2024-05-14_02-01-29</t>
+        </is>
       </c>
       <c r="J4" t="n">
         <v>0.9555555555555556</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.9555555555555556</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.9555555555555556</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9555555555555556</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -672,20 +636,13 @@
       <c r="H5" t="n">
         <v>51.96969696969697</v>
       </c>
-      <c r="I5" t="n">
-        <v>5</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2024-05-14_14-56-47</t>
+        </is>
       </c>
       <c r="J5" t="n">
-        <v>0.3838888888888889</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="6">
@@ -719,20 +676,13 @@
       <c r="H6" t="n">
         <v>53.125</v>
       </c>
-      <c r="I6" t="n">
-        <v>9</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2024-05-14_13-53-40</t>
+        </is>
       </c>
       <c r="J6" t="n">
-        <v>0.4496913580246914</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7">
@@ -766,20 +716,13 @@
       <c r="H7" t="n">
         <v>53.33333333333333</v>
       </c>
-      <c r="I7" t="n">
-        <v>6</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2024-05-13_20-53-19</t>
+        </is>
       </c>
       <c r="J7" t="n">
-        <v>0.5962962962962962</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.3777777777777778</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.9555555555555556</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.4888888888888889</v>
       </c>
     </row>
     <row r="8">
@@ -799,10 +742,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>57.04081632653061</v>
+        <v>58.84920634920636</v>
       </c>
       <c r="F8" t="n">
         <v>50.5952380952381</v>
@@ -811,22 +754,15 @@
         <v>74.44444444444444</v>
       </c>
       <c r="H8" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="I8" t="n">
-        <v>14</v>
+        <v>58.01587301587302</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2024-05-15_22-43-20</t>
+        </is>
       </c>
       <c r="J8" t="n">
-        <v>0.7414148351648351</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.78125</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="9">
@@ -846,10 +782,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>54.74950396825397</v>
+        <v>55.14109347442681</v>
       </c>
       <c r="F9" t="n">
         <v>50.5952380952381</v>
@@ -860,20 +796,13 @@
       <c r="H9" t="n">
         <v>52.77777777777777</v>
       </c>
-      <c r="I9" t="n">
-        <v>16</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2024-05-15_15-12-41</t>
+        </is>
       </c>
       <c r="J9" t="n">
-        <v>0.8756009615384616</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="L9" t="n">
         <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9302884615384616</v>
       </c>
     </row>
     <row r="10">
@@ -907,21 +836,14 @@
       <c r="H10" t="n">
         <v>50.83333333333334</v>
       </c>
-      <c r="I10" t="n">
-        <v>2</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2024-05-14_21-47-41</t>
+        </is>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -954,20 +876,13 @@
       <c r="H11" t="n">
         <v>50.90909090909091</v>
       </c>
-      <c r="I11" t="n">
-        <v>3</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2024-05-14_21-34-21</t>
+        </is>
       </c>
       <c r="J11" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
         <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1001,21 +916,14 @@
       <c r="H12" t="n">
         <v>50.83333333333334</v>
       </c>
-      <c r="I12" t="n">
-        <v>2</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2024-05-14_22-00-14</t>
+        </is>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1048,19 +956,12 @@
       <c r="H13" t="n">
         <v>50.90909090909091</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2024-05-14_22-15-57</t>
+        </is>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
         <v>0</v>
       </c>
     </row>
